--- a/EXCEL/IRA ERA AUR - HOSPITAL - 2023.xlsx
+++ b/EXCEL/IRA ERA AUR - HOSPITAL - 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://licenciasminsal-my.sharepoint.com/personal/santiago_farias_redsalud_gob_cl/Documents/Escritorio/GIE/IRA-ERA/EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_AD4D2F04E46CFB4ACB3E20ED2594FE04693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40BDD384-A92A-4026-B1BD-3C1B2B960E81}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_AD4D2F04E46CFB4ACB3E20ED2594FE04693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99F1BAB2-03AE-454A-8D1F-A06680CD3798}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Todas las Edades - Área" sheetId="2" r:id="rId1"/>
@@ -12171,16 +12171,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12253,15 +12253,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -18481,7 +18481,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCellId="1" sqref="C1:C1048576 A1:A1048576"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18627,7 +18627,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCellId="1" sqref="C1:C1048576 A1:A1048576"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18772,7 +18772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360B3F96-A209-4970-A7B2-AC003CD3498A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
@@ -18854,7 +18854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD7F5BD-E985-4E6D-8678-DDD548516A70}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
